--- a/src/Customer.xlsx
+++ b/src/Customer.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,14 @@
   </si>
   <si>
     <t>广西玉林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西南宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈慧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -66,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -106,7 +114,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -379,7 +387,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -387,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -415,43 +423,57 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2000520</v>
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>20001231</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>15078375132</v>
+        <v>15777120839</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>1234567</v>
+        <v>2000520</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>19912345678</v>
+        <v>15078375132</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1234567</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>19912345678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>7654321</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>110</v>
       </c>
     </row>
